--- a/test_cases/TC-04.xlsx
+++ b/test_cases/TC-04.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="72">
   <si>
     <t>&lt;&lt;</t>
   </si>
@@ -81,7 +81,13 @@
     <t>None</t>
   </si>
   <si>
-    <t>User has a product/s chosen</t>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>TS-4A</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -102,6 +108,9 @@
     <t>Not Automated</t>
   </si>
   <si>
+    <t>Executions</t>
+  </si>
+  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -111,7 +120,16 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Executions</t>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Regression 2</t>
+  </si>
+  <si>
+    <t>Regression 3</t>
+  </si>
+  <si>
+    <t>Regression 4</t>
   </si>
   <si>
     <r>
@@ -135,16 +153,13 @@
     <t>Site should open</t>
   </si>
   <si>
-    <t>Regression 1</t>
-  </si>
-  <si>
-    <t>Regression 2</t>
-  </si>
-  <si>
-    <t>Regression 3</t>
-  </si>
-  <si>
-    <t>Regression 4</t>
+    <t>Tester: Harry Alan Yang</t>
+  </si>
+  <si>
+    <t>Tester: Santiago Tormakh</t>
+  </si>
+  <si>
+    <t>Tester:</t>
   </si>
   <si>
     <t>User searches the desired product</t>
@@ -153,13 +168,10 @@
     <t>The desired product is selected</t>
   </si>
   <si>
-    <t>Tester: Harry Alan Yang</t>
-  </si>
-  <si>
-    <t>Tester: Santiago Tormakh</t>
-  </si>
-  <si>
-    <t>Tester:</t>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
     <t>User presses the button "Add To Cart"</t>
@@ -168,10 +180,16 @@
     <t>The product is added to cart and a success popup is displayed with information (Type, Size, Colour, Cantidad del mismo, Valor de compra acumulado, Delivery Fee and Total Amount)</t>
   </si>
   <si>
-    <t>Actual Results</t>
-  </si>
-  <si>
-    <t>Pass / Fail / Not executed / Suspended</t>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Not executed</t>
   </si>
   <si>
     <t>User presses the button to continue shopping</t>
@@ -180,18 +198,6 @@
     <t>The site returns to product page</t>
   </si>
   <si>
-    <t>As Expected</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Not executed</t>
-  </si>
-  <si>
     <t>User searches the next product</t>
   </si>
   <si>
@@ -213,10 +219,19 @@
     <t>DF-002: Popup displayed incorrect information (Size XL instead of M)</t>
   </si>
   <si>
-    <t>Alternate Test Scenario 2</t>
+    <t>TS-4B</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Alternate Test Scenario 1</t>
   </si>
   <si>
     <t>User should be able to add multiple units of the same product</t>
+  </si>
+  <si>
+    <t>Product = "Gold IPhone 12 128GB"</t>
   </si>
   <si>
     <r>
@@ -310,13 +325,19 @@
     </font>
     <font>
       <b/>
+      <sz val="12.0"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="11.0"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
@@ -324,12 +345,6 @@
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -375,7 +390,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +401,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
     <fill>
@@ -470,6 +491,11 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -487,6 +513,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -515,17 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -564,19 +590,14 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -645,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -673,13 +694,13 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -698,16 +719,16 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -719,25 +740,36 @@
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -746,51 +778,51 @@
     <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="18" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="18" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="21" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -799,28 +831,28 @@
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -829,51 +861,51 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,7 +1173,7 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1154,18 +1186,18 @@
       <c r="O2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="15">
-        <v>44562.0</v>
+        <v>44621.0</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -1326,12 +1358,8 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1360,14 +1388,18 @@
     </row>
     <row r="13">
       <c r="A13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1378,8 +1410,12 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
@@ -1393,19 +1429,11 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1416,11 +1444,19 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1433,20 +1469,9 @@
       <c r="O16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -1458,8 +1483,8 @@
       <c r="O17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="46">
-        <v>1.0</v>
+      <c r="A18" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="47" t="s">
         <v>33</v>
@@ -1490,270 +1515,281 @@
     </row>
     <row r="19">
       <c r="A19" s="50">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="52" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="53" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="45"/>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="54" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="45"/>
-      <c r="K19" s="53" t="s">
+      <c r="K19" s="54" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="45"/>
-      <c r="M19" s="54" t="s">
+      <c r="M19" s="55" t="s">
         <v>43</v>
       </c>
       <c r="N19" s="45"/>
       <c r="O19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="50">
-        <v>3.0</v>
-      </c>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="56">
+        <v>2.0</v>
+      </c>
+      <c r="B20" s="57" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="57" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="55" t="s">
+      <c r="J20" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="55" t="s">
+      <c r="L20" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="55" t="s">
+      <c r="M20" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="58" t="s">
         <v>47</v>
       </c>
       <c r="O20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="50">
-        <v>4.0</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="56">
+        <v>3.0</v>
+      </c>
+      <c r="B21" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="56" t="s">
+      <c r="K21" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="L21" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57" t="s">
+      <c r="M21" s="59"/>
+      <c r="N21" s="60" t="s">
         <v>53</v>
       </c>
       <c r="O21" s="7"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="50">
-        <v>5.0</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="56">
+        <v>4.0</v>
+      </c>
+      <c r="B22" s="57" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="57" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="56" t="s">
+      <c r="K22" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="57" t="s">
+      <c r="L22" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="57" t="s">
+      <c r="M22" s="59"/>
+      <c r="N22" s="60" t="s">
         <v>53</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="50">
-        <v>6.0</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>44</v>
+      <c r="A23" s="56">
+        <v>5.0</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="51" t="s">
-        <v>45</v>
+      <c r="D23" s="57" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="58" t="s">
+      <c r="L23" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57" t="s">
+      <c r="M23" s="59"/>
+      <c r="N23" s="60" t="s">
         <v>53</v>
       </c>
       <c r="O23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="50">
-        <v>7.0</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>56</v>
+      <c r="A24" s="56">
+        <v>6.0</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="51" t="s">
-        <v>57</v>
+      <c r="D24" s="57" t="s">
+        <v>49</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="J24" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="56" t="s">
+      <c r="K24" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="57" t="s">
+      <c r="L24" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57" t="s">
+      <c r="M24" s="59"/>
+      <c r="N24" s="60" t="s">
         <v>53</v>
       </c>
       <c r="O24" s="7"/>
     </row>
     <row r="25" ht="23.25" customHeight="1">
+      <c r="A25" s="56">
+        <v>7.0</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="57" t="s">
+      <c r="J25" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="56" t="s">
+      <c r="K25" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="56"/>
-      <c r="N25" s="57" t="s">
+      <c r="M25" s="59"/>
+      <c r="N25" s="60" t="s">
         <v>53</v>
       </c>
       <c r="O25" s="7"/>
     </row>
     <row r="26" ht="30.0" customHeight="1">
       <c r="F26" s="7"/>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="57" t="s">
+      <c r="J26" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="57" t="s">
+      <c r="L26" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57" t="s">
+      <c r="M26" s="59"/>
+      <c r="N26" s="60" t="s">
         <v>53</v>
       </c>
       <c r="O26" s="7"/>
@@ -1765,26 +1801,26 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="57" t="s">
+      <c r="H27" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="57" t="s">
+      <c r="L27" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57" t="s">
+      <c r="M27" s="59"/>
+      <c r="N27" s="60" t="s">
         <v>53</v>
       </c>
       <c r="O27" s="7"/>
@@ -1796,20 +1832,20 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="59" t="s">
-        <v>58</v>
+      <c r="G28" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="59" t="s">
-        <v>58</v>
+      <c r="I28" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="59" t="s">
-        <v>58</v>
+      <c r="K28" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="59" t="s">
-        <v>58</v>
+      <c r="M28" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="7"/>
@@ -1821,17 +1857,17 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="60"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="60" t="s">
-        <v>59</v>
+      <c r="I29" s="63" t="s">
+        <v>61</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="61" t="s">
-        <v>60</v>
+      <c r="K29" s="64" t="s">
+        <v>62</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="60"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="6"/>
       <c r="O29" s="7"/>
     </row>
@@ -1842,13 +1878,13 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="60"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="60"/>
+      <c r="K30" s="63"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="60"/>
+      <c r="M30" s="63"/>
       <c r="N30" s="6"/>
       <c r="O30" s="7"/>
     </row>
@@ -1859,13 +1895,13 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="60"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="60"/>
+      <c r="K31" s="63"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="60"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="6"/>
       <c r="O31" s="7"/>
     </row>
@@ -1876,24 +1912,24 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="60"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="60"/>
+      <c r="K32" s="63"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="60"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="6"/>
       <c r="O32" s="7"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="G33" s="60"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="60"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="60"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -1945,53 +1981,103 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" ht="50.25" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+    <row r="41" ht="17.25" customHeight="1">
+      <c r="A41" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="7"/>
+      <c r="G41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
+      <c r="A42" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="7"/>
+      <c r="G42" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="43" ht="40.5" customHeight="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
-      <c r="E43" s="66"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="69"/>
+      <c r="E43" s="70"/>
       <c r="F43" s="7"/>
+      <c r="G43" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" ht="15.75" hidden="1" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="7"/>
+      <c r="G44" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="36" t="s">
+      <c r="A45" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="67" t="s">
+      <c r="B45" s="40" t="s">
         <v>28</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="F45" s="7"/>
     </row>
@@ -2036,20 +2122,20 @@
       <c r="N48" s="7"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>30</v>
+      <c r="A49" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="42" t="s">
-        <v>31</v>
+      <c r="D49" s="48" t="s">
+        <v>34</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
       <c r="G49" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H49" s="44"/>
       <c r="I49" s="44"/>
@@ -2060,15 +2146,15 @@
       <c r="N49" s="45"/>
     </row>
     <row r="50" ht="34.5" customHeight="1">
-      <c r="A50" s="46">
+      <c r="A50" s="50">
         <v>1.0</v>
       </c>
-      <c r="B50" s="47" t="s">
-        <v>63</v>
+      <c r="B50" s="51" t="s">
+        <v>68</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="48" t="s">
-        <v>34</v>
+      <c r="D50" s="52" t="s">
+        <v>40</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
@@ -2090,28 +2176,28 @@
       <c r="N50" s="45"/>
     </row>
     <row r="51" ht="33.75" customHeight="1">
-      <c r="A51" s="46">
+      <c r="A51" s="50">
         <v>2.0</v>
       </c>
-      <c r="B51" s="51" t="s">
-        <v>39</v>
+      <c r="B51" s="57" t="s">
+        <v>44</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="51" t="s">
-        <v>40</v>
+      <c r="D51" s="57" t="s">
+        <v>45</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="71" t="s">
         <v>41</v>
       </c>
       <c r="H51" s="45"/>
-      <c r="I51" s="68" t="s">
-        <v>64</v>
+      <c r="I51" s="71" t="s">
+        <v>69</v>
       </c>
       <c r="J51" s="45"/>
       <c r="K51" s="49" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L51" s="45"/>
       <c r="M51" s="49" t="s">
@@ -2120,203 +2206,203 @@
       <c r="N51" s="45"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="69">
+      <c r="A52" s="72">
         <v>3.0</v>
       </c>
-      <c r="B52" s="51" t="s">
-        <v>44</v>
+      <c r="B52" s="57" t="s">
+        <v>48</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="51" t="s">
-        <v>45</v>
+      <c r="D52" s="57" t="s">
+        <v>49</v>
       </c>
       <c r="E52" s="6"/>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="55" t="s">
+      <c r="H52" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="I52" s="55" t="s">
+      <c r="I52" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="55" t="s">
+      <c r="J52" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="K52" s="55" t="s">
+      <c r="K52" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="L52" s="55" t="s">
+      <c r="L52" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="M52" s="55" t="s">
+      <c r="M52" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="N52" s="55" t="s">
+      <c r="N52" s="58" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="53" ht="31.5" customHeight="1">
-      <c r="A53" s="70">
+      <c r="A53" s="73">
         <v>4.0</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="G53" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="M53" s="59"/>
+      <c r="N53" s="60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" ht="105.0" customHeight="1">
+      <c r="A54" s="73">
+        <v>5.0</v>
+      </c>
+      <c r="B54" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="51" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="G53" s="56" t="s">
+      <c r="E54" s="6"/>
+      <c r="G54" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="57" t="s">
+      <c r="H54" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I53" s="56" t="s">
+      <c r="I54" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="J53" s="57" t="s">
+      <c r="J54" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="56" t="s">
+      <c r="M54" s="74"/>
+      <c r="N54" s="75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" ht="55.5" customHeight="1">
+      <c r="A55" s="73">
+        <v>6.0</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="G55" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="L53" s="57" t="s">
+      <c r="H55" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="M53" s="56"/>
-      <c r="N53" s="57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" ht="105.0" customHeight="1">
-      <c r="A54" s="70">
-        <v>5.0</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="G54" s="71" t="s">
+      <c r="I55" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="I54" s="71" t="s">
+      <c r="J55" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="J54" s="73" t="s">
+      <c r="L55" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="K54" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" s="71"/>
-      <c r="N54" s="72" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" ht="55.5" customHeight="1">
-      <c r="A55" s="70">
-        <v>6.0</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="G55" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="J55" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="L55" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="M55" s="71"/>
-      <c r="N55" s="72" t="s">
+      <c r="M55" s="74"/>
+      <c r="N55" s="75" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" ht="30.0" customHeight="1">
       <c r="F56" s="16"/>
-      <c r="G56" s="71" t="s">
+      <c r="G56" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H56" s="72" t="s">
+      <c r="H56" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I56" s="71" t="s">
+      <c r="I56" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="J56" s="73" t="s">
+      <c r="J56" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="K56" s="71" t="s">
+      <c r="K56" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="L56" s="72" t="s">
+      <c r="L56" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="M56" s="71"/>
-      <c r="N56" s="72" t="s">
+      <c r="M56" s="74"/>
+      <c r="N56" s="75" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="57" ht="15.0" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="G57" s="57" t="s">
+      <c r="G57" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="57" t="s">
+      <c r="H57" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I57" s="57" t="s">
+      <c r="I57" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="58" t="s">
+      <c r="J57" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="K57" s="57" t="s">
+      <c r="K57" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="L57" s="57" t="s">
+      <c r="L57" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57" t="s">
+      <c r="M57" s="60"/>
+      <c r="N57" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="7"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
@@ -2324,10 +2410,10 @@
     </row>
     <row r="59" ht="15.0" customHeight="1">
       <c r="A59" s="7"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -2335,69 +2421,69 @@
     </row>
     <row r="60" ht="15.0" customHeight="1">
       <c r="A60" s="7"/>
-      <c r="G60" s="59" t="s">
-        <v>58</v>
+      <c r="G60" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="59" t="s">
-        <v>58</v>
+      <c r="I60" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="J60" s="6"/>
-      <c r="K60" s="59" t="s">
-        <v>58</v>
+      <c r="K60" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="L60" s="6"/>
-      <c r="M60" s="59" t="s">
-        <v>58</v>
+      <c r="M60" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="N60" s="6"/>
     </row>
     <row r="61" ht="42.75" customHeight="1">
       <c r="A61" s="7"/>
-      <c r="G61" s="60"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="61" t="s">
-        <v>65</v>
+      <c r="I61" s="64" t="s">
+        <v>70</v>
       </c>
       <c r="J61" s="6"/>
-      <c r="K61" s="61" t="s">
-        <v>66</v>
+      <c r="K61" s="64" t="s">
+        <v>71</v>
       </c>
       <c r="L61" s="6"/>
-      <c r="M61" s="60"/>
+      <c r="M61" s="63"/>
       <c r="N61" s="6"/>
     </row>
     <row r="62" ht="15.0" customHeight="1">
       <c r="A62" s="7"/>
-      <c r="G62" s="60"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="60"/>
+      <c r="I62" s="63"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="60"/>
+      <c r="K62" s="63"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="60"/>
+      <c r="M62" s="63"/>
       <c r="N62" s="6"/>
     </row>
     <row r="63" ht="26.25" customHeight="1">
       <c r="A63" s="7"/>
-      <c r="G63" s="60"/>
+      <c r="G63" s="63"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="60"/>
+      <c r="I63" s="63"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="60"/>
+      <c r="K63" s="63"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="60"/>
+      <c r="M63" s="63"/>
       <c r="N63" s="6"/>
     </row>
     <row r="64" ht="30.0" customHeight="1">
       <c r="A64" s="7"/>
-      <c r="G64" s="60"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="60"/>
+      <c r="I64" s="63"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="60"/>
+      <c r="K64" s="63"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="60"/>
+      <c r="M64" s="63"/>
       <c r="N64" s="6"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -2407,13 +2493,13 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="60"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="60"/>
+      <c r="I65" s="63"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="60"/>
+      <c r="K65" s="63"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="60"/>
+      <c r="M65" s="63"/>
       <c r="N65" s="6"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -2484,868 +2570,868 @@
     <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="75"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
+      <c r="A76" s="78"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="78"/>
+      <c r="N76" s="78"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="76"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="78"/>
-      <c r="L77" s="76"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="76"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="80"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="79"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="76"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="79"/>
-      <c r="K78" s="80"/>
-      <c r="L78" s="76"/>
-      <c r="M78" s="76"/>
-      <c r="N78" s="76"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="79"/>
+      <c r="M78" s="79"/>
+      <c r="N78" s="79"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="76"/>
-      <c r="B79" s="76"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="80"/>
-      <c r="L79" s="76"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="76"/>
+      <c r="A79" s="79"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="83"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="76"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="79"/>
-      <c r="K80" s="80"/>
-      <c r="L80" s="76"/>
-      <c r="M80" s="76"/>
-      <c r="N80" s="76"/>
+      <c r="A80" s="79"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="79"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
+      <c r="J80" s="82"/>
+      <c r="K80" s="83"/>
+      <c r="L80" s="79"/>
+      <c r="M80" s="79"/>
+      <c r="N80" s="79"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="76"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="79"/>
-      <c r="K81" s="80"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="83"/>
+      <c r="L81" s="79"/>
+      <c r="M81" s="79"/>
+      <c r="N81" s="79"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="76"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="79"/>
-      <c r="K82" s="80"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="76"/>
-      <c r="N82" s="76"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
+      <c r="J82" s="82"/>
+      <c r="K82" s="83"/>
+      <c r="L82" s="79"/>
+      <c r="M82" s="79"/>
+      <c r="N82" s="79"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="76"/>
-      <c r="B83" s="76"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="80"/>
-      <c r="L83" s="76"/>
-      <c r="M83" s="76"/>
-      <c r="N83" s="76"/>
+      <c r="A83" s="79"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="82"/>
+      <c r="K83" s="83"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="81"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="79"/>
-      <c r="K84" s="80"/>
-      <c r="L84" s="76"/>
-      <c r="M84" s="76"/>
-      <c r="N84" s="76"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="83"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
+      <c r="N84" s="79"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="81"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="80"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="79"/>
-      <c r="K85" s="80"/>
-      <c r="L85" s="76"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="76"/>
+      <c r="A85" s="84"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="82"/>
+      <c r="K85" s="83"/>
+      <c r="L85" s="79"/>
+      <c r="M85" s="79"/>
+      <c r="N85" s="79"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="81"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="79"/>
-      <c r="H86" s="80"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="79"/>
-      <c r="K86" s="80"/>
-      <c r="L86" s="76"/>
-      <c r="M86" s="76"/>
-      <c r="N86" s="76"/>
+      <c r="A86" s="84"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="82"/>
+      <c r="K86" s="83"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="79"/>
+      <c r="N86" s="79"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="85"/>
-      <c r="B87" s="86"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="79"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="79"/>
-      <c r="K87" s="80"/>
-      <c r="L87" s="76"/>
-      <c r="M87" s="76"/>
-      <c r="N87" s="76"/>
+      <c r="A87" s="88"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="83"/>
+      <c r="L87" s="79"/>
+      <c r="M87" s="79"/>
+      <c r="N87" s="79"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="76"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="80"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="79"/>
-      <c r="K88" s="80"/>
-      <c r="L88" s="76"/>
-      <c r="M88" s="76"/>
-      <c r="N88" s="76"/>
+      <c r="A88" s="79"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="83"/>
+      <c r="L88" s="79"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="79"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="76"/>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="76"/>
-      <c r="H89" s="76"/>
-      <c r="I89" s="76"/>
-      <c r="J89" s="76"/>
-      <c r="K89" s="76"/>
-      <c r="L89" s="76"/>
-      <c r="M89" s="76"/>
-      <c r="N89" s="76"/>
+      <c r="A89" s="79"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="79"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="79"/>
+      <c r="M89" s="79"/>
+      <c r="N89" s="79"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="76"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="76"/>
-      <c r="K90" s="76"/>
-      <c r="L90" s="76"/>
-      <c r="M90" s="76"/>
-      <c r="N90" s="76"/>
-      <c r="O90" s="76"/>
-      <c r="P90" s="76"/>
-      <c r="Q90" s="76"/>
-      <c r="R90" s="76"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="79"/>
+      <c r="L90" s="79"/>
+      <c r="M90" s="79"/>
+      <c r="N90" s="79"/>
+      <c r="O90" s="79"/>
+      <c r="P90" s="79"/>
+      <c r="Q90" s="79"/>
+      <c r="R90" s="79"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="76"/>
-      <c r="B91" s="76"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="76"/>
-      <c r="I91" s="76"/>
-      <c r="J91" s="76"/>
-      <c r="K91" s="76"/>
-      <c r="L91" s="76"/>
-      <c r="M91" s="76"/>
-      <c r="N91" s="76"/>
-      <c r="O91" s="76"/>
-      <c r="P91" s="76"/>
-      <c r="Q91" s="76"/>
-      <c r="R91" s="76"/>
+      <c r="A91" s="79"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="79"/>
+      <c r="O91" s="79"/>
+      <c r="P91" s="79"/>
+      <c r="Q91" s="79"/>
+      <c r="R91" s="79"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="76"/>
-      <c r="B92" s="76"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="76"/>
-      <c r="K92" s="76"/>
-      <c r="L92" s="76"/>
-      <c r="M92" s="76"/>
-      <c r="N92" s="76"/>
-      <c r="O92" s="76"/>
-      <c r="P92" s="76"/>
-      <c r="Q92" s="76"/>
-      <c r="R92" s="76"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="79"/>
+      <c r="H92" s="79"/>
+      <c r="I92" s="79"/>
+      <c r="J92" s="79"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="79"/>
+      <c r="M92" s="79"/>
+      <c r="N92" s="79"/>
+      <c r="O92" s="79"/>
+      <c r="P92" s="79"/>
+      <c r="Q92" s="79"/>
+      <c r="R92" s="79"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="76"/>
-      <c r="B93" s="76"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="76"/>
-      <c r="I93" s="76"/>
-      <c r="J93" s="76"/>
-      <c r="K93" s="76"/>
-      <c r="L93" s="76"/>
-      <c r="M93" s="76"/>
-      <c r="N93" s="76"/>
-      <c r="O93" s="76"/>
-      <c r="P93" s="76"/>
-      <c r="Q93" s="76"/>
-      <c r="R93" s="76"/>
+      <c r="A93" s="79"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
+      <c r="H93" s="79"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="79"/>
+      <c r="M93" s="79"/>
+      <c r="N93" s="79"/>
+      <c r="O93" s="79"/>
+      <c r="P93" s="79"/>
+      <c r="Q93" s="79"/>
+      <c r="R93" s="79"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="76"/>
-      <c r="B94" s="76"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76"/>
-      <c r="I94" s="76"/>
-      <c r="J94" s="76"/>
-      <c r="K94" s="76"/>
-      <c r="L94" s="76"/>
-      <c r="M94" s="76"/>
-      <c r="N94" s="76"/>
-      <c r="O94" s="76"/>
-      <c r="P94" s="76"/>
-      <c r="Q94" s="76"/>
-      <c r="R94" s="76"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="79"/>
+      <c r="I94" s="79"/>
+      <c r="J94" s="79"/>
+      <c r="K94" s="79"/>
+      <c r="L94" s="79"/>
+      <c r="M94" s="79"/>
+      <c r="N94" s="79"/>
+      <c r="O94" s="79"/>
+      <c r="P94" s="79"/>
+      <c r="Q94" s="79"/>
+      <c r="R94" s="79"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="76"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="76"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="76"/>
-      <c r="I95" s="76"/>
-      <c r="J95" s="76"/>
-      <c r="K95" s="76"/>
-      <c r="L95" s="76"/>
-      <c r="M95" s="76"/>
-      <c r="N95" s="76"/>
-      <c r="O95" s="76"/>
-      <c r="P95" s="76"/>
-      <c r="Q95" s="76"/>
-      <c r="R95" s="76"/>
+      <c r="A95" s="79"/>
+      <c r="B95" s="79"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="79"/>
+      <c r="H95" s="79"/>
+      <c r="I95" s="79"/>
+      <c r="J95" s="79"/>
+      <c r="K95" s="79"/>
+      <c r="L95" s="79"/>
+      <c r="M95" s="79"/>
+      <c r="N95" s="79"/>
+      <c r="O95" s="79"/>
+      <c r="P95" s="79"/>
+      <c r="Q95" s="79"/>
+      <c r="R95" s="79"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="76"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
-      <c r="I96" s="76"/>
-      <c r="J96" s="76"/>
-      <c r="K96" s="76"/>
-      <c r="L96" s="76"/>
-      <c r="M96" s="76"/>
-      <c r="N96" s="76"/>
-      <c r="O96" s="76"/>
-      <c r="P96" s="76"/>
-      <c r="Q96" s="76"/>
-      <c r="R96" s="76"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="79"/>
+      <c r="I96" s="79"/>
+      <c r="J96" s="79"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="79"/>
+      <c r="M96" s="79"/>
+      <c r="N96" s="79"/>
+      <c r="O96" s="79"/>
+      <c r="P96" s="79"/>
+      <c r="Q96" s="79"/>
+      <c r="R96" s="79"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="76"/>
-      <c r="B97" s="76"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="76"/>
-      <c r="I97" s="76"/>
-      <c r="J97" s="76"/>
-      <c r="K97" s="76"/>
-      <c r="L97" s="76"/>
-      <c r="M97" s="76"/>
-      <c r="N97" s="76"/>
-      <c r="O97" s="76"/>
-      <c r="P97" s="76"/>
-      <c r="Q97" s="76"/>
-      <c r="R97" s="76"/>
+      <c r="A97" s="79"/>
+      <c r="B97" s="79"/>
+      <c r="C97" s="79"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="79"/>
+      <c r="F97" s="79"/>
+      <c r="G97" s="79"/>
+      <c r="H97" s="79"/>
+      <c r="I97" s="79"/>
+      <c r="J97" s="79"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="79"/>
+      <c r="M97" s="79"/>
+      <c r="N97" s="79"/>
+      <c r="O97" s="79"/>
+      <c r="P97" s="79"/>
+      <c r="Q97" s="79"/>
+      <c r="R97" s="79"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="76"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="76"/>
-      <c r="F98" s="76"/>
-      <c r="G98" s="76"/>
-      <c r="H98" s="76"/>
-      <c r="I98" s="76"/>
-      <c r="J98" s="76"/>
-      <c r="K98" s="76"/>
-      <c r="L98" s="76"/>
-      <c r="M98" s="76"/>
-      <c r="N98" s="76"/>
-      <c r="O98" s="76"/>
-      <c r="P98" s="76"/>
-      <c r="Q98" s="76"/>
-      <c r="R98" s="76"/>
+      <c r="A98" s="79"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="79"/>
+      <c r="H98" s="79"/>
+      <c r="I98" s="79"/>
+      <c r="J98" s="79"/>
+      <c r="K98" s="79"/>
+      <c r="L98" s="79"/>
+      <c r="M98" s="79"/>
+      <c r="N98" s="79"/>
+      <c r="O98" s="79"/>
+      <c r="P98" s="79"/>
+      <c r="Q98" s="79"/>
+      <c r="R98" s="79"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="76"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="76"/>
-      <c r="I99" s="76"/>
-      <c r="J99" s="76"/>
-      <c r="K99" s="76"/>
-      <c r="L99" s="76"/>
-      <c r="M99" s="76"/>
-      <c r="N99" s="76"/>
-      <c r="O99" s="76"/>
-      <c r="P99" s="76"/>
-      <c r="Q99" s="76"/>
-      <c r="R99" s="76"/>
+      <c r="A99" s="79"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
+      <c r="I99" s="79"/>
+      <c r="J99" s="79"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="79"/>
+      <c r="P99" s="79"/>
+      <c r="Q99" s="79"/>
+      <c r="R99" s="79"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="76"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76"/>
-      <c r="J100" s="76"/>
-      <c r="K100" s="76"/>
-      <c r="L100" s="76"/>
-      <c r="M100" s="76"/>
-      <c r="N100" s="76"/>
-      <c r="O100" s="76"/>
-      <c r="P100" s="76"/>
-      <c r="Q100" s="76"/>
-      <c r="R100" s="76"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="79"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="79"/>
+      <c r="H100" s="79"/>
+      <c r="I100" s="79"/>
+      <c r="J100" s="79"/>
+      <c r="K100" s="79"/>
+      <c r="L100" s="79"/>
+      <c r="M100" s="79"/>
+      <c r="N100" s="79"/>
+      <c r="O100" s="79"/>
+      <c r="P100" s="79"/>
+      <c r="Q100" s="79"/>
+      <c r="R100" s="79"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="76"/>
-      <c r="B101" s="76"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="76"/>
-      <c r="O101" s="76"/>
-      <c r="P101" s="76"/>
-      <c r="Q101" s="76"/>
-      <c r="R101" s="76"/>
+      <c r="A101" s="79"/>
+      <c r="B101" s="79"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="79"/>
+      <c r="F101" s="79"/>
+      <c r="G101" s="79"/>
+      <c r="H101" s="79"/>
+      <c r="I101" s="79"/>
+      <c r="J101" s="79"/>
+      <c r="K101" s="79"/>
+      <c r="L101" s="79"/>
+      <c r="M101" s="79"/>
+      <c r="N101" s="79"/>
+      <c r="O101" s="79"/>
+      <c r="P101" s="79"/>
+      <c r="Q101" s="79"/>
+      <c r="R101" s="79"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="76"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
-      <c r="K102" s="76"/>
-      <c r="L102" s="76"/>
-      <c r="M102" s="76"/>
-      <c r="N102" s="76"/>
-      <c r="O102" s="76"/>
-      <c r="P102" s="76"/>
-      <c r="Q102" s="76"/>
-      <c r="R102" s="76"/>
+      <c r="A102" s="79"/>
+      <c r="B102" s="79"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="79"/>
+      <c r="K102" s="79"/>
+      <c r="L102" s="79"/>
+      <c r="M102" s="79"/>
+      <c r="N102" s="79"/>
+      <c r="O102" s="79"/>
+      <c r="P102" s="79"/>
+      <c r="Q102" s="79"/>
+      <c r="R102" s="79"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="76"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="K103" s="76"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="76"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
-      <c r="Q103" s="76"/>
-      <c r="R103" s="76"/>
+      <c r="A103" s="79"/>
+      <c r="B103" s="79"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="H103" s="79"/>
+      <c r="I103" s="79"/>
+      <c r="J103" s="79"/>
+      <c r="K103" s="79"/>
+      <c r="L103" s="79"/>
+      <c r="M103" s="79"/>
+      <c r="N103" s="79"/>
+      <c r="O103" s="79"/>
+      <c r="P103" s="79"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="79"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="76"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="H104" s="76"/>
-      <c r="I104" s="76"/>
-      <c r="J104" s="76"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="76"/>
-      <c r="M104" s="76"/>
-      <c r="N104" s="76"/>
-      <c r="O104" s="76"/>
-      <c r="P104" s="76"/>
-      <c r="Q104" s="76"/>
-      <c r="R104" s="76"/>
+      <c r="A104" s="79"/>
+      <c r="B104" s="79"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="79"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="79"/>
+      <c r="L104" s="79"/>
+      <c r="M104" s="79"/>
+      <c r="N104" s="79"/>
+      <c r="O104" s="79"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="A105" s="76"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
-      <c r="H105" s="76"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="76"/>
-      <c r="K105" s="76"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="76"/>
-      <c r="Q105" s="76"/>
-      <c r="R105" s="76"/>
+      <c r="A105" s="79"/>
+      <c r="B105" s="79"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="79"/>
+      <c r="J105" s="79"/>
+      <c r="K105" s="79"/>
+      <c r="L105" s="79"/>
+      <c r="M105" s="79"/>
+      <c r="N105" s="79"/>
+      <c r="O105" s="79"/>
+      <c r="P105" s="79"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="79"/>
     </row>
     <row r="106" ht="27.0" customHeight="1">
-      <c r="A106" s="76"/>
-      <c r="B106" s="76"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="76"/>
-      <c r="K106" s="76"/>
-      <c r="L106" s="76"/>
-      <c r="M106" s="76"/>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="76"/>
-      <c r="Q106" s="76"/>
-      <c r="R106" s="76"/>
+      <c r="A106" s="79"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="79"/>
+      <c r="L106" s="79"/>
+      <c r="M106" s="79"/>
+      <c r="N106" s="79"/>
+      <c r="O106" s="79"/>
+      <c r="P106" s="79"/>
+      <c r="Q106" s="79"/>
+      <c r="R106" s="79"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="76"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="76"/>
-      <c r="M107" s="76"/>
-      <c r="N107" s="76"/>
-      <c r="O107" s="76"/>
-      <c r="P107" s="76"/>
-      <c r="Q107" s="76"/>
-      <c r="R107" s="76"/>
+      <c r="A107" s="79"/>
+      <c r="B107" s="79"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="79"/>
+      <c r="K107" s="79"/>
+      <c r="L107" s="79"/>
+      <c r="M107" s="79"/>
+      <c r="N107" s="79"/>
+      <c r="O107" s="79"/>
+      <c r="P107" s="79"/>
+      <c r="Q107" s="79"/>
+      <c r="R107" s="79"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="76"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="76"/>
-      <c r="M108" s="76"/>
-      <c r="N108" s="76"/>
-      <c r="O108" s="76"/>
-      <c r="P108" s="76"/>
-      <c r="Q108" s="76"/>
-      <c r="R108" s="76"/>
+      <c r="A108" s="79"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="79"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="79"/>
+      <c r="H108" s="79"/>
+      <c r="I108" s="79"/>
+      <c r="J108" s="79"/>
+      <c r="K108" s="79"/>
+      <c r="L108" s="79"/>
+      <c r="M108" s="79"/>
+      <c r="N108" s="79"/>
+      <c r="O108" s="79"/>
+      <c r="P108" s="79"/>
+      <c r="Q108" s="79"/>
+      <c r="R108" s="79"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="76"/>
-      <c r="B109" s="76"/>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="76"/>
-      <c r="N109" s="76"/>
-      <c r="O109" s="76"/>
-      <c r="P109" s="76"/>
-      <c r="Q109" s="76"/>
-      <c r="R109" s="76"/>
+      <c r="A109" s="79"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="79"/>
+      <c r="J109" s="79"/>
+      <c r="K109" s="79"/>
+      <c r="L109" s="79"/>
+      <c r="M109" s="79"/>
+      <c r="N109" s="79"/>
+      <c r="O109" s="79"/>
+      <c r="P109" s="79"/>
+      <c r="Q109" s="79"/>
+      <c r="R109" s="79"/>
     </row>
     <row r="110" ht="26.25" customHeight="1">
-      <c r="A110" s="76"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="76"/>
-      <c r="O110" s="76"/>
-      <c r="P110" s="76"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="76"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="79"/>
+      <c r="I110" s="79"/>
+      <c r="J110" s="79"/>
+      <c r="K110" s="79"/>
+      <c r="L110" s="79"/>
+      <c r="M110" s="79"/>
+      <c r="N110" s="79"/>
+      <c r="O110" s="79"/>
+      <c r="P110" s="79"/>
+      <c r="Q110" s="79"/>
+      <c r="R110" s="79"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="76"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
-      <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
-      <c r="K111" s="76"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="76"/>
-      <c r="N111" s="76"/>
-      <c r="O111" s="76"/>
-      <c r="P111" s="76"/>
-      <c r="Q111" s="76"/>
-      <c r="R111" s="76"/>
+      <c r="A111" s="79"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="79"/>
+      <c r="I111" s="79"/>
+      <c r="J111" s="79"/>
+      <c r="K111" s="79"/>
+      <c r="L111" s="79"/>
+      <c r="M111" s="79"/>
+      <c r="N111" s="79"/>
+      <c r="O111" s="79"/>
+      <c r="P111" s="79"/>
+      <c r="Q111" s="79"/>
+      <c r="R111" s="79"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="76"/>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
-      <c r="J112" s="76"/>
-      <c r="K112" s="76"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="76"/>
-      <c r="N112" s="76"/>
-      <c r="O112" s="76"/>
-      <c r="P112" s="76"/>
-      <c r="Q112" s="76"/>
-      <c r="R112" s="76"/>
+      <c r="A112" s="79"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="79"/>
+      <c r="H112" s="79"/>
+      <c r="I112" s="79"/>
+      <c r="J112" s="79"/>
+      <c r="K112" s="79"/>
+      <c r="L112" s="79"/>
+      <c r="M112" s="79"/>
+      <c r="N112" s="79"/>
+      <c r="O112" s="79"/>
+      <c r="P112" s="79"/>
+      <c r="Q112" s="79"/>
+      <c r="R112" s="79"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="76"/>
-      <c r="B113" s="76"/>
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="76"/>
-      <c r="K113" s="76"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="76"/>
-      <c r="N113" s="76"/>
-      <c r="O113" s="76"/>
-      <c r="P113" s="76"/>
-      <c r="Q113" s="76"/>
-      <c r="R113" s="76"/>
+      <c r="A113" s="79"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="79"/>
+      <c r="H113" s="79"/>
+      <c r="I113" s="79"/>
+      <c r="J113" s="79"/>
+      <c r="K113" s="79"/>
+      <c r="L113" s="79"/>
+      <c r="M113" s="79"/>
+      <c r="N113" s="79"/>
+      <c r="O113" s="79"/>
+      <c r="P113" s="79"/>
+      <c r="Q113" s="79"/>
+      <c r="R113" s="79"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="76"/>
-      <c r="B114" s="76"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="76"/>
-      <c r="I114" s="76"/>
-      <c r="J114" s="76"/>
-      <c r="K114" s="76"/>
-      <c r="L114" s="76"/>
-      <c r="M114" s="76"/>
-      <c r="N114" s="76"/>
-      <c r="O114" s="76"/>
-      <c r="P114" s="76"/>
-      <c r="Q114" s="76"/>
-      <c r="R114" s="76"/>
+      <c r="A114" s="79"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="79"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="79"/>
+      <c r="I114" s="79"/>
+      <c r="J114" s="79"/>
+      <c r="K114" s="79"/>
+      <c r="L114" s="79"/>
+      <c r="M114" s="79"/>
+      <c r="N114" s="79"/>
+      <c r="O114" s="79"/>
+      <c r="P114" s="79"/>
+      <c r="Q114" s="79"/>
+      <c r="R114" s="79"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="76"/>
-      <c r="B115" s="76"/>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
-      <c r="J115" s="76"/>
-      <c r="K115" s="76"/>
-      <c r="L115" s="76"/>
-      <c r="M115" s="76"/>
-      <c r="N115" s="76"/>
-      <c r="O115" s="76"/>
-      <c r="P115" s="76"/>
-      <c r="Q115" s="76"/>
-      <c r="R115" s="76"/>
+      <c r="A115" s="79"/>
+      <c r="B115" s="79"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="79"/>
+      <c r="L115" s="79"/>
+      <c r="M115" s="79"/>
+      <c r="N115" s="79"/>
+      <c r="O115" s="79"/>
+      <c r="P115" s="79"/>
+      <c r="Q115" s="79"/>
+      <c r="R115" s="79"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="76"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="76"/>
-      <c r="D116" s="76"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="76"/>
-      <c r="H116" s="76"/>
-      <c r="I116" s="76"/>
-      <c r="J116" s="76"/>
-      <c r="K116" s="76"/>
-      <c r="L116" s="76"/>
-      <c r="M116" s="76"/>
-      <c r="N116" s="76"/>
-      <c r="O116" s="76"/>
-      <c r="P116" s="76"/>
-      <c r="Q116" s="76"/>
-      <c r="R116" s="76"/>
+      <c r="A116" s="79"/>
+      <c r="B116" s="79"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="79"/>
+      <c r="I116" s="79"/>
+      <c r="J116" s="79"/>
+      <c r="K116" s="79"/>
+      <c r="L116" s="79"/>
+      <c r="M116" s="79"/>
+      <c r="N116" s="79"/>
+      <c r="O116" s="79"/>
+      <c r="P116" s="79"/>
+      <c r="Q116" s="79"/>
+      <c r="R116" s="79"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="76"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="76"/>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="76"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="76"/>
-      <c r="J117" s="76"/>
-      <c r="K117" s="76"/>
-      <c r="L117" s="76"/>
-      <c r="M117" s="76"/>
-      <c r="N117" s="76"/>
-      <c r="O117" s="76"/>
-      <c r="P117" s="76"/>
-      <c r="Q117" s="76"/>
-      <c r="R117" s="76"/>
+      <c r="A117" s="79"/>
+      <c r="B117" s="79"/>
+      <c r="C117" s="79"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="79"/>
+      <c r="G117" s="79"/>
+      <c r="H117" s="79"/>
+      <c r="I117" s="79"/>
+      <c r="J117" s="79"/>
+      <c r="K117" s="79"/>
+      <c r="L117" s="79"/>
+      <c r="M117" s="79"/>
+      <c r="N117" s="79"/>
+      <c r="O117" s="79"/>
+      <c r="P117" s="79"/>
+      <c r="Q117" s="79"/>
+      <c r="R117" s="79"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="76"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="76"/>
-      <c r="K118" s="76"/>
-      <c r="L118" s="76"/>
-      <c r="M118" s="76"/>
-      <c r="N118" s="76"/>
-      <c r="O118" s="76"/>
-      <c r="P118" s="76"/>
-      <c r="Q118" s="76"/>
-      <c r="R118" s="76"/>
+      <c r="A118" s="79"/>
+      <c r="B118" s="79"/>
+      <c r="C118" s="79"/>
+      <c r="D118" s="79"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="79"/>
+      <c r="G118" s="79"/>
+      <c r="H118" s="79"/>
+      <c r="I118" s="79"/>
+      <c r="J118" s="79"/>
+      <c r="K118" s="79"/>
+      <c r="L118" s="79"/>
+      <c r="M118" s="79"/>
+      <c r="N118" s="79"/>
+      <c r="O118" s="79"/>
+      <c r="P118" s="79"/>
+      <c r="Q118" s="79"/>
+      <c r="R118" s="79"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="76"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="76"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="76"/>
-      <c r="K119" s="76"/>
-      <c r="L119" s="76"/>
-      <c r="M119" s="76"/>
-      <c r="N119" s="76"/>
-      <c r="O119" s="76"/>
-      <c r="P119" s="76"/>
-      <c r="Q119" s="76"/>
-      <c r="R119" s="76"/>
+      <c r="A119" s="79"/>
+      <c r="B119" s="79"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="79"/>
+      <c r="H119" s="79"/>
+      <c r="I119" s="79"/>
+      <c r="J119" s="79"/>
+      <c r="K119" s="79"/>
+      <c r="L119" s="79"/>
+      <c r="M119" s="79"/>
+      <c r="N119" s="79"/>
+      <c r="O119" s="79"/>
+      <c r="P119" s="79"/>
+      <c r="Q119" s="79"/>
+      <c r="R119" s="79"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="76"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="76"/>
-      <c r="I120" s="76"/>
-      <c r="J120" s="76"/>
-      <c r="K120" s="76"/>
-      <c r="L120" s="76"/>
-      <c r="M120" s="76"/>
-      <c r="N120" s="76"/>
-      <c r="O120" s="76"/>
-      <c r="P120" s="76"/>
-      <c r="Q120" s="76"/>
-      <c r="R120" s="76"/>
+      <c r="A120" s="79"/>
+      <c r="B120" s="79"/>
+      <c r="C120" s="79"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="79"/>
+      <c r="F120" s="79"/>
+      <c r="G120" s="79"/>
+      <c r="H120" s="79"/>
+      <c r="I120" s="79"/>
+      <c r="J120" s="79"/>
+      <c r="K120" s="79"/>
+      <c r="L120" s="79"/>
+      <c r="M120" s="79"/>
+      <c r="N120" s="79"/>
+      <c r="O120" s="79"/>
+      <c r="P120" s="79"/>
+      <c r="Q120" s="79"/>
+      <c r="R120" s="79"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="76"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76"/>
-      <c r="I121" s="76"/>
-      <c r="J121" s="76"/>
-      <c r="K121" s="76"/>
-      <c r="L121" s="76"/>
-      <c r="M121" s="76"/>
-      <c r="N121" s="76"/>
-      <c r="O121" s="76"/>
-      <c r="P121" s="76"/>
-      <c r="Q121" s="76"/>
-      <c r="R121" s="76"/>
+      <c r="A121" s="79"/>
+      <c r="B121" s="79"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="79"/>
+      <c r="I121" s="79"/>
+      <c r="J121" s="79"/>
+      <c r="K121" s="79"/>
+      <c r="L121" s="79"/>
+      <c r="M121" s="79"/>
+      <c r="N121" s="79"/>
+      <c r="O121" s="79"/>
+      <c r="P121" s="79"/>
+      <c r="Q121" s="79"/>
+      <c r="R121" s="79"/>
     </row>
     <row r="122" ht="15.75" customHeight="1"/>
     <row r="123" ht="15.75" customHeight="1"/>
@@ -4214,111 +4300,115 @@
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="G49:N49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
+  <mergeCells count="105">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:E44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:N49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B42:E44"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="I65:J65"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="K65:L65"/>
     <mergeCell ref="M65:N65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B18"/>
+    <hyperlink r:id="rId1" ref="B19"/>
     <hyperlink r:id="rId2" ref="B50"/>
   </hyperlinks>
   <printOptions/>

--- a/test_cases/TC-04.xlsx
+++ b/test_cases/TC-04.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAEF269-29B3-4F17-A53A-0A0F1E1D70A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Hoja2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Hoja3" sheetId="3" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="69">
   <si>
     <t>&lt;&lt;</t>
   </si>
@@ -66,15 +75,9 @@
     <t>User has created an account</t>
   </si>
   <si>
-    <t>Product = "Black T-shirt M size"</t>
-  </si>
-  <si>
     <t>Connection to the Internet</t>
   </si>
   <si>
-    <t>Product = "Silver IPhone 12 128GB"</t>
-  </si>
-  <si>
     <t>User is logged in</t>
   </si>
   <si>
@@ -130,247 +133,233 @@
   </si>
   <si>
     <t>Regression 4</t>
+  </si>
+  <si>
+    <t>Site should open</t>
+  </si>
+  <si>
+    <t>Tester: Harry Alan Yang</t>
+  </si>
+  <si>
+    <t>Tester: Santiago Tormakh</t>
+  </si>
+  <si>
+    <t>Tester:</t>
+  </si>
+  <si>
+    <t>User searches the desired product</t>
+  </si>
+  <si>
+    <t>The desired product is selected</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>User presses the button "Add To Cart"</t>
+  </si>
+  <si>
+    <t>The product is added to cart and a success popup is displayed with information (Type, Size, Colour, Cantidad del mismo, Valor de compra acumulado, Delivery Fee and Total Amount)</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>User presses the button to continue shopping</t>
+  </si>
+  <si>
+    <t>The site returns to product page</t>
+  </si>
+  <si>
+    <t>User searches the next product</t>
+  </si>
+  <si>
+    <t>The site navigates to the next product page</t>
+  </si>
+  <si>
+    <t>User presses the "Check-out button"</t>
+  </si>
+  <si>
+    <t>The site moves to the check-out</t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
+    <t>TS-4B</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Alternate Test Scenario 1</t>
+  </si>
+  <si>
+    <t>User should be able to add multiple units of the same product</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>The product is added to cart and a success popup is displayed with information (Type, Size, Colour, Quantity, Delivery Fee and Total Amount)</t>
+  </si>
+  <si>
+    <t>Product = "Printed Summer Dress Yellow S"</t>
+  </si>
+  <si>
+    <t>Product = "Blouse Black S"</t>
+  </si>
+  <si>
+    <t>User presses the " Procced to Check-out button"</t>
+  </si>
+  <si>
+    <t>Navigate to http://automationpractice.com/index.php</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Calibri"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Navigate to </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="10.0"/>
-        <u/>
       </rPr>
-      <t>http://demo.guru99.com</t>
+      <t>http://automationpractice.com/index.php</t>
     </r>
   </si>
   <si>
-    <t>Site should open</t>
-  </si>
-  <si>
-    <t>Tester: Harry Alan Yang</t>
-  </si>
-  <si>
-    <t>Tester: Santiago Tormakh</t>
-  </si>
-  <si>
-    <t>Tester:</t>
-  </si>
-  <si>
-    <t>User searches the desired product</t>
-  </si>
-  <si>
-    <t>The desired product is selected</t>
-  </si>
-  <si>
-    <t>Actual Results</t>
-  </si>
-  <si>
-    <t>Pass / Fail / Not executed / Suspended</t>
-  </si>
-  <si>
-    <t>User presses the button "Add To Cart"</t>
-  </si>
-  <si>
-    <t>The product is added to cart and a success popup is displayed with information (Type, Size, Colour, Cantidad del mismo, Valor de compra acumulado, Delivery Fee and Total Amount)</t>
-  </si>
-  <si>
-    <t>As Expected</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Not executed</t>
-  </si>
-  <si>
-    <t>User presses the button to continue shopping</t>
-  </si>
-  <si>
-    <t>The site returns to product page</t>
-  </si>
-  <si>
-    <t>User searches the next product</t>
-  </si>
-  <si>
-    <t>The site navigates to the next product page</t>
-  </si>
-  <si>
-    <t>User presses the "Check-out button"</t>
-  </si>
-  <si>
-    <t>The site moves to the check-out</t>
-  </si>
-  <si>
-    <t>Defects Created</t>
-  </si>
-  <si>
-    <t>DF-001: Site did not open</t>
-  </si>
-  <si>
-    <t>DF-002: Popup displayed incorrect information (Size XL instead of M)</t>
-  </si>
-  <si>
-    <t>TS-4B</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Alternate Test Scenario 1</t>
-  </si>
-  <si>
-    <t>User should be able to add multiple units of the same product</t>
-  </si>
-  <si>
-    <t>Product = "Gold IPhone 12 128GB"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Navigate to </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>http://demo.guru99.com</t>
-    </r>
-  </si>
-  <si>
-    <t>Tester: Jane Williams</t>
-  </si>
-  <si>
-    <t>DF-015: Database error 404</t>
-  </si>
-  <si>
-    <t>DF-016: Popup still displays product quantity as 1 instead of 2</t>
+    <t>Product = "Black Blouse S"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d.m"/>
+    <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -378,15 +367,25 @@
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -395,7 +394,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -429,7 +428,13 @@
     </fill>
   </fills>
   <borders count="25">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
@@ -443,8 +448,10 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -454,6 +461,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -468,14 +476,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -486,22 +498,29 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -514,17 +533,20 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -539,6 +561,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -553,6 +576,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -564,27 +588,39 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -593,35 +629,47 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
+      <right/>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
@@ -631,6 +679,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -643,6 +692,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -651,285 +701,266 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="84">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1119,23 +1150,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,2301 +1178,2295 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.4">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15">
-        <v>44621.0</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="18" t="s">
+      <c r="E3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="30.6">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
+      <c r="C5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.4">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="40.799999999999997">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.399999999999999">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.399999999999999">
+      <c r="A10" s="16">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="18">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.4">
+      <c r="A13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="C13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="D13" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.4">
+      <c r="A14" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="B14" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="32" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.4">
+      <c r="A15" s="67"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.399999999999999">
+      <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="39" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="E16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="39" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.6">
+      <c r="F17" s="4"/>
+      <c r="G17" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.4">
+      <c r="A18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17">
-      <c r="F17" s="7"/>
-      <c r="G17" s="43" t="s">
+      <c r="B18" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="46" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="48" t="s">
+      <c r="H18" s="52"/>
+      <c r="I18" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="49" t="s">
+      <c r="J18" s="52"/>
+      <c r="K18" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="49" t="s">
+      <c r="L18" s="52"/>
+      <c r="M18" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="49" t="s">
+      <c r="N18" s="52"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="40.799999999999997" customHeight="1">
+      <c r="A19" s="27">
+        <v>1</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="49" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="50">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="51" t="s">
+      <c r="H19" s="52"/>
+      <c r="I19" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="52" t="s">
+      <c r="J19" s="52"/>
+      <c r="K19" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="53" t="s">
+      <c r="N19" s="52"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A20" s="27">
+        <v>2</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="54" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="54" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" ht="132.6" customHeight="1">
+      <c r="A21" s="27">
+        <v>3</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" ht="33" customHeight="1">
+      <c r="A22" s="27">
+        <v>4</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A23" s="27">
+        <v>5</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A24" s="27">
+        <v>6</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="50"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A25" s="27">
+        <v>7</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="N25" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" ht="30" customHeight="1">
+      <c r="F26" s="4"/>
+      <c r="G26" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="50"/>
+      <c r="K28" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="50"/>
+      <c r="M28" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A42" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="16">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="40.5" customHeight="1">
+      <c r="A43" s="76"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="16">
+        <v>2</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="18">
+        <v>2</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" hidden="1" customHeight="1">
+      <c r="A44" s="67"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="16">
+        <v>3</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A45" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A49" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="50"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="52"/>
+    </row>
+    <row r="50" spans="1:14" ht="34.5" customHeight="1">
+      <c r="A50" s="27">
+        <v>1</v>
+      </c>
+      <c r="B50" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="50"/>
+      <c r="D50" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="50"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="52"/>
+      <c r="I50" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="52"/>
+      <c r="K50" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="52"/>
+      <c r="M50" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="N50" s="52"/>
+    </row>
+    <row r="51" spans="1:14" ht="33.75" customHeight="1">
+      <c r="A51" s="27">
+        <v>2</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="55" t="s">
+      <c r="E51" s="50"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" s="52"/>
+      <c r="I51" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="52"/>
+      <c r="K51" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="52"/>
+      <c r="M51" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51" s="52"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A52" s="31">
+        <v>3</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="50"/>
+      <c r="G52" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="B20" s="57" t="s">
+      <c r="H52" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="57" t="s">
+      <c r="I52" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A53" s="32">
+        <v>4</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="50"/>
+      <c r="G53" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="105" customHeight="1">
+      <c r="A54" s="32">
+        <v>5</v>
+      </c>
+      <c r="B54" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="58" t="s">
+      <c r="C54" s="50"/>
+      <c r="D54" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="E54" s="50"/>
+      <c r="G54" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="58" t="s">
+      <c r="H54" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="58" t="s">
+      <c r="J54" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="58" t="s">
+      <c r="L54" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M54" s="33"/>
+      <c r="N54" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="55.5" customHeight="1">
+      <c r="A55" s="32">
+        <v>6</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="50"/>
+      <c r="D55" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="50"/>
+      <c r="G55" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="56">
-        <v>3.0</v>
-      </c>
-      <c r="B21" s="57" t="s">
+      <c r="H55" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="57" t="s">
+      <c r="I55" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" s="59"/>
-      <c r="N21" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="56">
-        <v>4.0</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="56">
-        <v>5.0</v>
-      </c>
-      <c r="B23" s="57" t="s">
+      <c r="K55" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M55" s="33"/>
+      <c r="N55" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="30" customHeight="1">
+      <c r="F56" s="9"/>
+      <c r="G56" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L56" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M56" s="33"/>
+      <c r="N56" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="4"/>
+      <c r="G57" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="4"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
+      <c r="A59" s="4"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
+      <c r="A60" s="4"/>
+      <c r="G60" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="56">
-        <v>6.0</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" ht="23.25" customHeight="1">
-      <c r="A25" s="56">
-        <v>7.0</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" ht="30.0" customHeight="1">
-      <c r="F26" s="7"/>
-      <c r="G26" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="G33" s="63"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" ht="17.25" customHeight="1">
-      <c r="A41" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" ht="40.5" customHeight="1">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" hidden="1" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="45"/>
-    </row>
-    <row r="50" ht="34.5" customHeight="1">
-      <c r="A50" s="50">
-        <v>1.0</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="45"/>
-      <c r="I50" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="J50" s="45"/>
-      <c r="K50" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L50" s="45"/>
-      <c r="M50" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="N50" s="45"/>
-    </row>
-    <row r="51" ht="33.75" customHeight="1">
-      <c r="A51" s="50">
-        <v>2.0</v>
-      </c>
-      <c r="B51" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="45"/>
-      <c r="I51" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="J51" s="45"/>
-      <c r="K51" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="L51" s="45"/>
-      <c r="M51" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="N51" s="45"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="72">
-        <v>3.0</v>
-      </c>
-      <c r="B52" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="G52" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="J52" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="K52" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="L52" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="M52" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="N52" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" ht="31.5" customHeight="1">
-      <c r="A53" s="73">
-        <v>4.0</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="G53" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J53" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="K53" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M53" s="59"/>
-      <c r="N53" s="60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" ht="105.0" customHeight="1">
-      <c r="A54" s="73">
-        <v>5.0</v>
-      </c>
-      <c r="B54" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="G54" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="I54" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="J54" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" s="74"/>
-      <c r="N54" s="75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" ht="55.5" customHeight="1">
-      <c r="A55" s="73">
-        <v>6.0</v>
-      </c>
-      <c r="B55" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="G55" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="J55" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="L55" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="M55" s="74"/>
-      <c r="N55" s="75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" ht="30.0" customHeight="1">
-      <c r="F56" s="16"/>
-      <c r="G56" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="I56" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="J56" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="K56" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="L56" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="M56" s="74"/>
-      <c r="N56" s="75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" ht="15.0" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="G57" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I57" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="J57" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K57" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="L57" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" ht="15.0" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-    </row>
-    <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-    </row>
-    <row r="60" ht="15.0" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="G60" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="L60" s="6"/>
-      <c r="M60" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="N60" s="6"/>
-    </row>
-    <row r="61" ht="42.75" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="6"/>
-    </row>
-    <row r="62" ht="15.0" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="6"/>
-    </row>
-    <row r="63" ht="26.25" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="6"/>
-    </row>
-    <row r="64" ht="30.0" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="6"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="6"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-    </row>
-    <row r="67" ht="21.0" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" ht="35.25" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="78"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="78"/>
-      <c r="H76" s="78"/>
-      <c r="I76" s="78"/>
-      <c r="J76" s="78"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="78"/>
-      <c r="M76" s="78"/>
-      <c r="N76" s="78"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="79"/>
-      <c r="B77" s="79"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="79"/>
-      <c r="J77" s="80"/>
-      <c r="K77" s="81"/>
-      <c r="L77" s="79"/>
-      <c r="M77" s="79"/>
-      <c r="N77" s="79"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="79"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="79"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="79"/>
-      <c r="M78" s="79"/>
-      <c r="N78" s="79"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="79"/>
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="82"/>
-      <c r="K79" s="83"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="79"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="79"/>
-      <c r="I80" s="79"/>
-      <c r="J80" s="82"/>
-      <c r="K80" s="83"/>
-      <c r="L80" s="79"/>
-      <c r="M80" s="79"/>
-      <c r="N80" s="79"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="79"/>
-      <c r="B81" s="79"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="79"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="83"/>
-      <c r="L81" s="79"/>
-      <c r="M81" s="79"/>
-      <c r="N81" s="79"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="79"/>
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
-      <c r="J82" s="82"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="79"/>
-      <c r="M82" s="79"/>
-      <c r="N82" s="79"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="79"/>
-      <c r="B83" s="79"/>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="79"/>
-      <c r="I83" s="79"/>
-      <c r="J83" s="82"/>
-      <c r="K83" s="83"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
-      <c r="N83" s="79"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="84"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="87"/>
-      <c r="I84" s="79"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="79"/>
-      <c r="M84" s="79"/>
-      <c r="N84" s="79"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="84"/>
-      <c r="B85" s="85"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="79"/>
-      <c r="J85" s="82"/>
-      <c r="K85" s="83"/>
-      <c r="L85" s="79"/>
-      <c r="M85" s="79"/>
-      <c r="N85" s="79"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="84"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="79"/>
-      <c r="J86" s="82"/>
-      <c r="K86" s="83"/>
-      <c r="L86" s="79"/>
-      <c r="M86" s="79"/>
-      <c r="N86" s="79"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="88"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="79"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="83"/>
-      <c r="L87" s="79"/>
-      <c r="M87" s="79"/>
-      <c r="N87" s="79"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="79"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="82"/>
-      <c r="K88" s="83"/>
-      <c r="L88" s="79"/>
-      <c r="M88" s="79"/>
-      <c r="N88" s="79"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="79"/>
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="79"/>
-      <c r="I89" s="79"/>
-      <c r="J89" s="79"/>
-      <c r="K89" s="79"/>
-      <c r="L89" s="79"/>
-      <c r="M89" s="79"/>
-      <c r="N89" s="79"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="79"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="79"/>
-      <c r="I90" s="79"/>
-      <c r="J90" s="79"/>
-      <c r="K90" s="79"/>
-      <c r="L90" s="79"/>
-      <c r="M90" s="79"/>
-      <c r="N90" s="79"/>
-      <c r="O90" s="79"/>
-      <c r="P90" s="79"/>
-      <c r="Q90" s="79"/>
-      <c r="R90" s="79"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="79"/>
-      <c r="B91" s="79"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="79"/>
-      <c r="H91" s="79"/>
-      <c r="I91" s="79"/>
-      <c r="J91" s="79"/>
-      <c r="K91" s="79"/>
-      <c r="L91" s="79"/>
-      <c r="M91" s="79"/>
-      <c r="N91" s="79"/>
-      <c r="O91" s="79"/>
-      <c r="P91" s="79"/>
-      <c r="Q91" s="79"/>
-      <c r="R91" s="79"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="79"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="79"/>
-      <c r="H92" s="79"/>
-      <c r="I92" s="79"/>
-      <c r="J92" s="79"/>
-      <c r="K92" s="79"/>
-      <c r="L92" s="79"/>
-      <c r="M92" s="79"/>
-      <c r="N92" s="79"/>
-      <c r="O92" s="79"/>
-      <c r="P92" s="79"/>
-      <c r="Q92" s="79"/>
-      <c r="R92" s="79"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="79"/>
-      <c r="B93" s="79"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="79"/>
-      <c r="G93" s="79"/>
-      <c r="H93" s="79"/>
-      <c r="I93" s="79"/>
-      <c r="J93" s="79"/>
-      <c r="K93" s="79"/>
-      <c r="L93" s="79"/>
-      <c r="M93" s="79"/>
-      <c r="N93" s="79"/>
-      <c r="O93" s="79"/>
-      <c r="P93" s="79"/>
-      <c r="Q93" s="79"/>
-      <c r="R93" s="79"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="79"/>
-      <c r="B94" s="79"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="79"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="79"/>
-      <c r="H94" s="79"/>
-      <c r="I94" s="79"/>
-      <c r="J94" s="79"/>
-      <c r="K94" s="79"/>
-      <c r="L94" s="79"/>
-      <c r="M94" s="79"/>
-      <c r="N94" s="79"/>
-      <c r="O94" s="79"/>
-      <c r="P94" s="79"/>
-      <c r="Q94" s="79"/>
-      <c r="R94" s="79"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="79"/>
-      <c r="B95" s="79"/>
-      <c r="C95" s="79"/>
-      <c r="D95" s="79"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="79"/>
-      <c r="G95" s="79"/>
-      <c r="H95" s="79"/>
-      <c r="I95" s="79"/>
-      <c r="J95" s="79"/>
-      <c r="K95" s="79"/>
-      <c r="L95" s="79"/>
-      <c r="M95" s="79"/>
-      <c r="N95" s="79"/>
-      <c r="O95" s="79"/>
-      <c r="P95" s="79"/>
-      <c r="Q95" s="79"/>
-      <c r="R95" s="79"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="79"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="79"/>
-      <c r="H96" s="79"/>
-      <c r="I96" s="79"/>
-      <c r="J96" s="79"/>
-      <c r="K96" s="79"/>
-      <c r="L96" s="79"/>
-      <c r="M96" s="79"/>
-      <c r="N96" s="79"/>
-      <c r="O96" s="79"/>
-      <c r="P96" s="79"/>
-      <c r="Q96" s="79"/>
-      <c r="R96" s="79"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="79"/>
-      <c r="B97" s="79"/>
-      <c r="C97" s="79"/>
-      <c r="D97" s="79"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="79"/>
-      <c r="G97" s="79"/>
-      <c r="H97" s="79"/>
-      <c r="I97" s="79"/>
-      <c r="J97" s="79"/>
-      <c r="K97" s="79"/>
-      <c r="L97" s="79"/>
-      <c r="M97" s="79"/>
-      <c r="N97" s="79"/>
-      <c r="O97" s="79"/>
-      <c r="P97" s="79"/>
-      <c r="Q97" s="79"/>
-      <c r="R97" s="79"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="79"/>
-      <c r="B98" s="79"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="79"/>
-      <c r="H98" s="79"/>
-      <c r="I98" s="79"/>
-      <c r="J98" s="79"/>
-      <c r="K98" s="79"/>
-      <c r="L98" s="79"/>
-      <c r="M98" s="79"/>
-      <c r="N98" s="79"/>
-      <c r="O98" s="79"/>
-      <c r="P98" s="79"/>
-      <c r="Q98" s="79"/>
-      <c r="R98" s="79"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="79"/>
-      <c r="B99" s="79"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="79"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="79"/>
-      <c r="I99" s="79"/>
-      <c r="J99" s="79"/>
-      <c r="K99" s="79"/>
-      <c r="L99" s="79"/>
-      <c r="M99" s="79"/>
-      <c r="N99" s="79"/>
-      <c r="O99" s="79"/>
-      <c r="P99" s="79"/>
-      <c r="Q99" s="79"/>
-      <c r="R99" s="79"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="79"/>
-      <c r="B100" s="79"/>
-      <c r="C100" s="79"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="79"/>
-      <c r="H100" s="79"/>
-      <c r="I100" s="79"/>
-      <c r="J100" s="79"/>
-      <c r="K100" s="79"/>
-      <c r="L100" s="79"/>
-      <c r="M100" s="79"/>
-      <c r="N100" s="79"/>
-      <c r="O100" s="79"/>
-      <c r="P100" s="79"/>
-      <c r="Q100" s="79"/>
-      <c r="R100" s="79"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="79"/>
-      <c r="B101" s="79"/>
-      <c r="C101" s="79"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="79"/>
-      <c r="G101" s="79"/>
-      <c r="H101" s="79"/>
-      <c r="I101" s="79"/>
-      <c r="J101" s="79"/>
-      <c r="K101" s="79"/>
-      <c r="L101" s="79"/>
-      <c r="M101" s="79"/>
-      <c r="N101" s="79"/>
-      <c r="O101" s="79"/>
-      <c r="P101" s="79"/>
-      <c r="Q101" s="79"/>
-      <c r="R101" s="79"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="79"/>
-      <c r="B102" s="79"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="79"/>
-      <c r="I102" s="79"/>
-      <c r="J102" s="79"/>
-      <c r="K102" s="79"/>
-      <c r="L102" s="79"/>
-      <c r="M102" s="79"/>
-      <c r="N102" s="79"/>
-      <c r="O102" s="79"/>
-      <c r="P102" s="79"/>
-      <c r="Q102" s="79"/>
-      <c r="R102" s="79"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="79"/>
-      <c r="B103" s="79"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="H103" s="79"/>
-      <c r="I103" s="79"/>
-      <c r="J103" s="79"/>
-      <c r="K103" s="79"/>
-      <c r="L103" s="79"/>
-      <c r="M103" s="79"/>
-      <c r="N103" s="79"/>
-      <c r="O103" s="79"/>
-      <c r="P103" s="79"/>
-      <c r="Q103" s="79"/>
-      <c r="R103" s="79"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="79"/>
-      <c r="B104" s="79"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="79"/>
-      <c r="H104" s="79"/>
-      <c r="I104" s="79"/>
-      <c r="J104" s="79"/>
-      <c r="K104" s="79"/>
-      <c r="L104" s="79"/>
-      <c r="M104" s="79"/>
-      <c r="N104" s="79"/>
-      <c r="O104" s="79"/>
-      <c r="P104" s="79"/>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="A105" s="79"/>
-      <c r="B105" s="79"/>
-      <c r="C105" s="79"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
-      <c r="G105" s="79"/>
-      <c r="H105" s="79"/>
-      <c r="I105" s="79"/>
-      <c r="J105" s="79"/>
-      <c r="K105" s="79"/>
-      <c r="L105" s="79"/>
-      <c r="M105" s="79"/>
-      <c r="N105" s="79"/>
-      <c r="O105" s="79"/>
-      <c r="P105" s="79"/>
-      <c r="Q105" s="79"/>
-      <c r="R105" s="79"/>
-    </row>
-    <row r="106" ht="27.0" customHeight="1">
-      <c r="A106" s="79"/>
-      <c r="B106" s="79"/>
-      <c r="C106" s="79"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="79"/>
-      <c r="H106" s="79"/>
-      <c r="I106" s="79"/>
-      <c r="J106" s="79"/>
-      <c r="K106" s="79"/>
-      <c r="L106" s="79"/>
-      <c r="M106" s="79"/>
-      <c r="N106" s="79"/>
-      <c r="O106" s="79"/>
-      <c r="P106" s="79"/>
-      <c r="Q106" s="79"/>
-      <c r="R106" s="79"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="79"/>
-      <c r="B107" s="79"/>
-      <c r="C107" s="79"/>
-      <c r="D107" s="79"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="79"/>
-      <c r="G107" s="79"/>
-      <c r="H107" s="79"/>
-      <c r="I107" s="79"/>
-      <c r="J107" s="79"/>
-      <c r="K107" s="79"/>
-      <c r="L107" s="79"/>
-      <c r="M107" s="79"/>
-      <c r="N107" s="79"/>
-      <c r="O107" s="79"/>
-      <c r="P107" s="79"/>
-      <c r="Q107" s="79"/>
-      <c r="R107" s="79"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="79"/>
-      <c r="B108" s="79"/>
-      <c r="C108" s="79"/>
-      <c r="D108" s="79"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="79"/>
-      <c r="G108" s="79"/>
-      <c r="H108" s="79"/>
-      <c r="I108" s="79"/>
-      <c r="J108" s="79"/>
-      <c r="K108" s="79"/>
-      <c r="L108" s="79"/>
-      <c r="M108" s="79"/>
-      <c r="N108" s="79"/>
-      <c r="O108" s="79"/>
-      <c r="P108" s="79"/>
-      <c r="Q108" s="79"/>
-      <c r="R108" s="79"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="79"/>
-      <c r="B109" s="79"/>
-      <c r="C109" s="79"/>
-      <c r="D109" s="79"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79"/>
-      <c r="H109" s="79"/>
-      <c r="I109" s="79"/>
-      <c r="J109" s="79"/>
-      <c r="K109" s="79"/>
-      <c r="L109" s="79"/>
-      <c r="M109" s="79"/>
-      <c r="N109" s="79"/>
-      <c r="O109" s="79"/>
-      <c r="P109" s="79"/>
-      <c r="Q109" s="79"/>
-      <c r="R109" s="79"/>
-    </row>
-    <row r="110" ht="26.25" customHeight="1">
-      <c r="A110" s="79"/>
-      <c r="B110" s="79"/>
-      <c r="C110" s="79"/>
-      <c r="D110" s="79"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="79"/>
-      <c r="G110" s="79"/>
-      <c r="H110" s="79"/>
-      <c r="I110" s="79"/>
-      <c r="J110" s="79"/>
-      <c r="K110" s="79"/>
-      <c r="L110" s="79"/>
-      <c r="M110" s="79"/>
-      <c r="N110" s="79"/>
-      <c r="O110" s="79"/>
-      <c r="P110" s="79"/>
-      <c r="Q110" s="79"/>
-      <c r="R110" s="79"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="79"/>
-      <c r="B111" s="79"/>
-      <c r="C111" s="79"/>
-      <c r="D111" s="79"/>
-      <c r="E111" s="79"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="79"/>
-      <c r="H111" s="79"/>
-      <c r="I111" s="79"/>
-      <c r="J111" s="79"/>
-      <c r="K111" s="79"/>
-      <c r="L111" s="79"/>
-      <c r="M111" s="79"/>
-      <c r="N111" s="79"/>
-      <c r="O111" s="79"/>
-      <c r="P111" s="79"/>
-      <c r="Q111" s="79"/>
-      <c r="R111" s="79"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="79"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="79"/>
-      <c r="F112" s="79"/>
-      <c r="G112" s="79"/>
-      <c r="H112" s="79"/>
-      <c r="I112" s="79"/>
-      <c r="J112" s="79"/>
-      <c r="K112" s="79"/>
-      <c r="L112" s="79"/>
-      <c r="M112" s="79"/>
-      <c r="N112" s="79"/>
-      <c r="O112" s="79"/>
-      <c r="P112" s="79"/>
-      <c r="Q112" s="79"/>
-      <c r="R112" s="79"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="79"/>
-      <c r="B113" s="79"/>
-      <c r="C113" s="79"/>
-      <c r="D113" s="79"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="79"/>
-      <c r="H113" s="79"/>
-      <c r="I113" s="79"/>
-      <c r="J113" s="79"/>
-      <c r="K113" s="79"/>
-      <c r="L113" s="79"/>
-      <c r="M113" s="79"/>
-      <c r="N113" s="79"/>
-      <c r="O113" s="79"/>
-      <c r="P113" s="79"/>
-      <c r="Q113" s="79"/>
-      <c r="R113" s="79"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="79"/>
-      <c r="B114" s="79"/>
-      <c r="C114" s="79"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="79"/>
-      <c r="I114" s="79"/>
-      <c r="J114" s="79"/>
-      <c r="K114" s="79"/>
-      <c r="L114" s="79"/>
-      <c r="M114" s="79"/>
-      <c r="N114" s="79"/>
-      <c r="O114" s="79"/>
-      <c r="P114" s="79"/>
-      <c r="Q114" s="79"/>
-      <c r="R114" s="79"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="79"/>
-      <c r="B115" s="79"/>
-      <c r="C115" s="79"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="79"/>
-      <c r="H115" s="79"/>
-      <c r="I115" s="79"/>
-      <c r="J115" s="79"/>
-      <c r="K115" s="79"/>
-      <c r="L115" s="79"/>
-      <c r="M115" s="79"/>
-      <c r="N115" s="79"/>
-      <c r="O115" s="79"/>
-      <c r="P115" s="79"/>
-      <c r="Q115" s="79"/>
-      <c r="R115" s="79"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="79"/>
-      <c r="B116" s="79"/>
-      <c r="C116" s="79"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="79"/>
-      <c r="I116" s="79"/>
-      <c r="J116" s="79"/>
-      <c r="K116" s="79"/>
-      <c r="L116" s="79"/>
-      <c r="M116" s="79"/>
-      <c r="N116" s="79"/>
-      <c r="O116" s="79"/>
-      <c r="P116" s="79"/>
-      <c r="Q116" s="79"/>
-      <c r="R116" s="79"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="79"/>
-      <c r="B117" s="79"/>
-      <c r="C117" s="79"/>
-      <c r="D117" s="79"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="79"/>
-      <c r="H117" s="79"/>
-      <c r="I117" s="79"/>
-      <c r="J117" s="79"/>
-      <c r="K117" s="79"/>
-      <c r="L117" s="79"/>
-      <c r="M117" s="79"/>
-      <c r="N117" s="79"/>
-      <c r="O117" s="79"/>
-      <c r="P117" s="79"/>
-      <c r="Q117" s="79"/>
-      <c r="R117" s="79"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="79"/>
-      <c r="B118" s="79"/>
-      <c r="C118" s="79"/>
-      <c r="D118" s="79"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="79"/>
-      <c r="G118" s="79"/>
-      <c r="H118" s="79"/>
-      <c r="I118" s="79"/>
-      <c r="J118" s="79"/>
-      <c r="K118" s="79"/>
-      <c r="L118" s="79"/>
-      <c r="M118" s="79"/>
-      <c r="N118" s="79"/>
-      <c r="O118" s="79"/>
-      <c r="P118" s="79"/>
-      <c r="Q118" s="79"/>
-      <c r="R118" s="79"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="79"/>
-      <c r="B119" s="79"/>
-      <c r="C119" s="79"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="79"/>
-      <c r="I119" s="79"/>
-      <c r="J119" s="79"/>
-      <c r="K119" s="79"/>
-      <c r="L119" s="79"/>
-      <c r="M119" s="79"/>
-      <c r="N119" s="79"/>
-      <c r="O119" s="79"/>
-      <c r="P119" s="79"/>
-      <c r="Q119" s="79"/>
-      <c r="R119" s="79"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="79"/>
-      <c r="B120" s="79"/>
-      <c r="C120" s="79"/>
-      <c r="D120" s="79"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="79"/>
-      <c r="G120" s="79"/>
-      <c r="H120" s="79"/>
-      <c r="I120" s="79"/>
-      <c r="J120" s="79"/>
-      <c r="K120" s="79"/>
-      <c r="L120" s="79"/>
-      <c r="M120" s="79"/>
-      <c r="N120" s="79"/>
-      <c r="O120" s="79"/>
-      <c r="P120" s="79"/>
-      <c r="Q120" s="79"/>
-      <c r="R120" s="79"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="79"/>
-      <c r="B121" s="79"/>
-      <c r="C121" s="79"/>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="79"/>
-      <c r="I121" s="79"/>
-      <c r="J121" s="79"/>
-      <c r="K121" s="79"/>
-      <c r="L121" s="79"/>
-      <c r="M121" s="79"/>
-      <c r="N121" s="79"/>
-      <c r="O121" s="79"/>
-      <c r="P121" s="79"/>
-      <c r="Q121" s="79"/>
-      <c r="R121" s="79"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" s="50"/>
+      <c r="K60" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" s="50"/>
+      <c r="M60" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="N60" s="50"/>
+    </row>
+    <row r="61" spans="1:14" ht="42.75" customHeight="1">
+      <c r="A61" s="4"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="50"/>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
+      <c r="A62" s="4"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="50"/>
+    </row>
+    <row r="63" spans="1:14" ht="26.25" customHeight="1">
+      <c r="A63" s="4"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="50"/>
+    </row>
+    <row r="64" spans="1:14" ht="30" customHeight="1">
+      <c r="A64" s="4"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="50"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="50"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" ht="21" customHeight="1">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:14" ht="35.25" customHeight="1">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+    </row>
+    <row r="82" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A84" s="42"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+    </row>
+    <row r="85" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A85" s="42"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+    </row>
+    <row r="86" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A86" s="42"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A87" s="46"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+    </row>
+    <row r="90" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+    </row>
+    <row r="91" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+    </row>
+    <row r="92" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+    </row>
+    <row r="93" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+    </row>
+    <row r="94" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+    </row>
+    <row r="95" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+    </row>
+    <row r="96" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+    </row>
+    <row r="97" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+    </row>
+    <row r="98" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+    </row>
+    <row r="99" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+    </row>
+    <row r="100" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+    </row>
+    <row r="101" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+    </row>
+    <row r="102" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+    </row>
+    <row r="103" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
+    </row>
+    <row r="104" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="37"/>
+      <c r="R104" s="37"/>
+    </row>
+    <row r="105" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+    </row>
+    <row r="106" spans="1:18" ht="27" customHeight="1">
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="37"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
+      <c r="Q106" s="37"/>
+      <c r="R106" s="37"/>
+    </row>
+    <row r="107" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="37"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="37"/>
+      <c r="R107" s="37"/>
+    </row>
+    <row r="108" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="37"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="37"/>
+      <c r="R108" s="37"/>
+    </row>
+    <row r="109" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A109" s="37"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="37"/>
+      <c r="O109" s="37"/>
+      <c r="P109" s="37"/>
+      <c r="Q109" s="37"/>
+      <c r="R109" s="37"/>
+    </row>
+    <row r="110" spans="1:18" ht="26.25" customHeight="1">
+      <c r="A110" s="37"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="37"/>
+      <c r="O110" s="37"/>
+      <c r="P110" s="37"/>
+      <c r="Q110" s="37"/>
+      <c r="R110" s="37"/>
+    </row>
+    <row r="111" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="37"/>
+      <c r="N111" s="37"/>
+      <c r="O111" s="37"/>
+      <c r="P111" s="37"/>
+      <c r="Q111" s="37"/>
+      <c r="R111" s="37"/>
+    </row>
+    <row r="112" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A112" s="37"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="37"/>
+      <c r="O112" s="37"/>
+      <c r="P112" s="37"/>
+      <c r="Q112" s="37"/>
+      <c r="R112" s="37"/>
+    </row>
+    <row r="113" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A113" s="37"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
+      <c r="O113" s="37"/>
+      <c r="P113" s="37"/>
+      <c r="Q113" s="37"/>
+      <c r="R113" s="37"/>
+    </row>
+    <row r="114" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="37"/>
+    </row>
+    <row r="115" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A115" s="37"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="37"/>
+      <c r="O115" s="37"/>
+      <c r="P115" s="37"/>
+      <c r="Q115" s="37"/>
+      <c r="R115" s="37"/>
+    </row>
+    <row r="116" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A116" s="37"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="37"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="37"/>
+      <c r="O116" s="37"/>
+      <c r="P116" s="37"/>
+      <c r="Q116" s="37"/>
+      <c r="R116" s="37"/>
+    </row>
+    <row r="117" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="37"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="37"/>
+      <c r="P117" s="37"/>
+      <c r="Q117" s="37"/>
+      <c r="R117" s="37"/>
+    </row>
+    <row r="118" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="37"/>
+      <c r="O118" s="37"/>
+      <c r="P118" s="37"/>
+      <c r="Q118" s="37"/>
+      <c r="R118" s="37"/>
+    </row>
+    <row r="119" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A119" s="37"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="37"/>
+      <c r="L119" s="37"/>
+      <c r="M119" s="37"/>
+      <c r="N119" s="37"/>
+      <c r="O119" s="37"/>
+      <c r="P119" s="37"/>
+      <c r="Q119" s="37"/>
+      <c r="R119" s="37"/>
+    </row>
+    <row r="120" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A120" s="37"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="37"/>
+      <c r="O120" s="37"/>
+      <c r="P120" s="37"/>
+      <c r="Q120" s="37"/>
+      <c r="R120" s="37"/>
+    </row>
+    <row r="121" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A121" s="37"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+      <c r="N121" s="37"/>
+      <c r="O121" s="37"/>
+      <c r="P121" s="37"/>
+      <c r="Q121" s="37"/>
+      <c r="R121" s="37"/>
+    </row>
+    <row r="122" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="123" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="124" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="125" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="126" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="127" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="128" spans="1:18" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -4301,18 +4328,84 @@
     <row r="987" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:E44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:N49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I18:J18"/>
@@ -4328,107 +4421,37 @@
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:E44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:N49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B19"/>
-    <hyperlink r:id="rId2" ref="B50"/>
+    <hyperlink ref="B19" r:id="rId1" display="Navigate to http://demo.guru99.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B50" r:id="rId2" display="Navigate to http://demo.guru99.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5412,24 +5435,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6413,9 +6432,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>